--- a/X-u5-i10.xlsx
+++ b/X-u5-i10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-federated-fairness-didactic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383EB712-CAD9-4DD3-9405-FB514771D629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF27BEE7-4407-4665-AD0F-E4CBB93200E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
   </bookViews>
@@ -503,7 +503,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
